--- a/2022/SAMSUNG/AUGUST/31.08.2022/SAMSUNG Bank Statement August-2022.xlsx
+++ b/2022/SAMSUNG/AUGUST/31.08.2022/SAMSUNG Bank Statement August-2022.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\SAMSUNG\AUGUST\31.08.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\SAMSUNG\August\31.08.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -51,6 +51,36 @@
             <family val="2"/>
           </rPr>
           <t>Toner+Helmet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>16800 bill
+6600 retail 33*200
+23400 Total Cost
+10200 company adjusted
+13200 Mugdho Corporation cost
+8400 aug dekhano hoyese
+4800 sep dekhano hobe</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -115,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="312">
   <si>
     <t>Date</t>
   </si>
@@ -753,9 +783,6 @@
     <t>bill</t>
   </si>
   <si>
-    <t>retail</t>
-  </si>
-  <si>
     <t>BRM cost</t>
   </si>
   <si>
@@ -1037,6 +1064,24 @@
   <si>
     <t>Galaxy+Gstore+ Mum Sec</t>
   </si>
+  <si>
+    <t>company adjusted</t>
+  </si>
+  <si>
+    <t>aug dekhano hoyese</t>
+  </si>
+  <si>
+    <t>sep dekhano hobe</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>retail 33*200</t>
+  </si>
+  <si>
+    <t>Mugdho Corporation cost</t>
+  </si>
 </sst>
 </file>
 
@@ -1045,7 +1090,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="49">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1353,6 +1398,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="49">
@@ -3618,43 +3669,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5584,7 +5635,7 @@
     <row r="9" spans="1:9">
       <c r="A9" s="405"/>
       <c r="B9" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="224">
         <v>0</v>
@@ -5604,7 +5655,7 @@
     <row r="10" spans="1:9">
       <c r="A10" s="405"/>
       <c r="B10" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="226">
         <v>0</v>
@@ -5624,7 +5675,7 @@
     <row r="11" spans="1:9">
       <c r="A11" s="405"/>
       <c r="B11" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="224">
         <v>100000</v>
@@ -5644,7 +5695,7 @@
     <row r="12" spans="1:9">
       <c r="A12" s="405"/>
       <c r="B12" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="224">
         <v>0</v>
@@ -5664,7 +5715,7 @@
     <row r="13" spans="1:9">
       <c r="A13" s="405"/>
       <c r="B13" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C13" s="224">
         <v>0</v>
@@ -5684,7 +5735,7 @@
     <row r="14" spans="1:9">
       <c r="A14" s="405"/>
       <c r="B14" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C14" s="224">
         <v>300000</v>
@@ -5704,7 +5755,7 @@
     <row r="15" spans="1:9">
       <c r="A15" s="405"/>
       <c r="B15" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C15" s="224">
         <v>0</v>
@@ -5724,7 +5775,7 @@
     <row r="16" spans="1:9">
       <c r="A16" s="405"/>
       <c r="B16" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C16" s="224">
         <v>0</v>
@@ -5744,7 +5795,7 @@
     <row r="17" spans="1:9">
       <c r="A17" s="405"/>
       <c r="B17" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="224">
         <v>0</v>
@@ -5764,7 +5815,7 @@
     <row r="18" spans="1:9">
       <c r="A18" s="405"/>
       <c r="B18" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C18" s="224">
         <v>100000</v>
@@ -5784,7 +5835,7 @@
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
       <c r="A19" s="405"/>
       <c r="B19" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C19" s="224">
         <v>0</v>
@@ -5804,7 +5855,7 @@
     <row r="20" spans="1:9">
       <c r="A20" s="405"/>
       <c r="B20" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C20" s="224">
         <v>0</v>
@@ -5824,7 +5875,7 @@
     <row r="21" spans="1:9">
       <c r="A21" s="405"/>
       <c r="B21" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C21" s="224">
         <v>0</v>
@@ -5844,7 +5895,7 @@
     <row r="22" spans="1:9">
       <c r="A22" s="405"/>
       <c r="B22" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C22" s="224">
         <v>1000000</v>
@@ -5864,7 +5915,7 @@
     <row r="23" spans="1:9">
       <c r="A23" s="405"/>
       <c r="B23" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C23" s="224">
         <v>0</v>
@@ -5884,7 +5935,7 @@
     <row r="24" spans="1:9">
       <c r="A24" s="405"/>
       <c r="B24" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C24" s="224">
         <v>0</v>
@@ -5904,7 +5955,7 @@
     <row r="25" spans="1:9">
       <c r="A25" s="405"/>
       <c r="B25" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C25" s="224">
         <v>0</v>
@@ -5924,7 +5975,7 @@
     <row r="26" spans="1:9">
       <c r="A26" s="405"/>
       <c r="B26" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C26" s="224">
         <v>0</v>
@@ -5944,7 +5995,7 @@
     <row r="27" spans="1:9">
       <c r="A27" s="405"/>
       <c r="B27" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C27" s="224">
         <v>0</v>
@@ -5964,7 +6015,7 @@
     <row r="28" spans="1:9">
       <c r="A28" s="405"/>
       <c r="B28" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C28" s="224">
         <v>1200000</v>
@@ -5984,7 +6035,7 @@
     <row r="29" spans="1:9">
       <c r="A29" s="405"/>
       <c r="B29" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C29" s="224">
         <v>0</v>
@@ -6004,7 +6055,7 @@
     <row r="30" spans="1:9">
       <c r="A30" s="405"/>
       <c r="B30" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C30" s="224">
         <v>500000</v>
@@ -6024,7 +6075,7 @@
     <row r="31" spans="1:9">
       <c r="A31" s="405"/>
       <c r="B31" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C31" s="224">
         <v>600000</v>
@@ -6044,7 +6095,7 @@
     <row r="32" spans="1:9">
       <c r="A32" s="405"/>
       <c r="B32" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C32" s="224">
         <v>700000</v>
@@ -6064,7 +6115,7 @@
     <row r="33" spans="1:9">
       <c r="A33" s="405"/>
       <c r="B33" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C33" s="224">
         <v>1010000</v>
@@ -6736,9 +6787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
+      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6758,67 +6809,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="412" t="s">
+      <c r="A1" s="410" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="412"/>
-      <c r="C1" s="412"/>
-      <c r="D1" s="412"/>
-      <c r="E1" s="412"/>
-      <c r="F1" s="412"/>
-      <c r="G1" s="412"/>
-      <c r="H1" s="412"/>
-      <c r="I1" s="412"/>
-      <c r="J1" s="412"/>
-      <c r="K1" s="412"/>
-      <c r="L1" s="412"/>
-      <c r="M1" s="412"/>
-      <c r="N1" s="412"/>
-      <c r="O1" s="412"/>
-      <c r="P1" s="412"/>
-      <c r="Q1" s="412"/>
+      <c r="B1" s="410"/>
+      <c r="C1" s="410"/>
+      <c r="D1" s="410"/>
+      <c r="E1" s="410"/>
+      <c r="F1" s="410"/>
+      <c r="G1" s="410"/>
+      <c r="H1" s="410"/>
+      <c r="I1" s="410"/>
+      <c r="J1" s="410"/>
+      <c r="K1" s="410"/>
+      <c r="L1" s="410"/>
+      <c r="M1" s="410"/>
+      <c r="N1" s="410"/>
+      <c r="O1" s="410"/>
+      <c r="P1" s="410"/>
+      <c r="Q1" s="410"/>
     </row>
     <row r="2" spans="1:24" s="60" customFormat="1" ht="18">
-      <c r="A2" s="413" t="s">
+      <c r="A2" s="411" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="413"/>
-      <c r="C2" s="413"/>
-      <c r="D2" s="413"/>
-      <c r="E2" s="413"/>
-      <c r="F2" s="413"/>
-      <c r="G2" s="413"/>
-      <c r="H2" s="413"/>
-      <c r="I2" s="413"/>
-      <c r="J2" s="413"/>
-      <c r="K2" s="413"/>
-      <c r="L2" s="413"/>
-      <c r="M2" s="413"/>
-      <c r="N2" s="413"/>
-      <c r="O2" s="413"/>
-      <c r="P2" s="413"/>
-      <c r="Q2" s="413"/>
+      <c r="B2" s="411"/>
+      <c r="C2" s="411"/>
+      <c r="D2" s="411"/>
+      <c r="E2" s="411"/>
+      <c r="F2" s="411"/>
+      <c r="G2" s="411"/>
+      <c r="H2" s="411"/>
+      <c r="I2" s="411"/>
+      <c r="J2" s="411"/>
+      <c r="K2" s="411"/>
+      <c r="L2" s="411"/>
+      <c r="M2" s="411"/>
+      <c r="N2" s="411"/>
+      <c r="O2" s="411"/>
+      <c r="P2" s="411"/>
+      <c r="Q2" s="411"/>
     </row>
     <row r="3" spans="1:24" s="61" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="414" t="s">
+      <c r="A3" s="412" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="415"/>
-      <c r="C3" s="415"/>
-      <c r="D3" s="415"/>
-      <c r="E3" s="415"/>
-      <c r="F3" s="415"/>
-      <c r="G3" s="415"/>
-      <c r="H3" s="415"/>
-      <c r="I3" s="415"/>
-      <c r="J3" s="415"/>
-      <c r="K3" s="415"/>
-      <c r="L3" s="415"/>
-      <c r="M3" s="415"/>
-      <c r="N3" s="415"/>
-      <c r="O3" s="415"/>
-      <c r="P3" s="415"/>
-      <c r="Q3" s="416"/>
+      <c r="B3" s="413"/>
+      <c r="C3" s="413"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="413"/>
+      <c r="F3" s="413"/>
+      <c r="G3" s="413"/>
+      <c r="H3" s="413"/>
+      <c r="I3" s="413"/>
+      <c r="J3" s="413"/>
+      <c r="K3" s="413"/>
+      <c r="L3" s="413"/>
+      <c r="M3" s="413"/>
+      <c r="N3" s="413"/>
+      <c r="O3" s="413"/>
+      <c r="P3" s="413"/>
+      <c r="Q3" s="414"/>
       <c r="S3" s="45"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6827,53 +6878,53 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="62" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="417" t="s">
+      <c r="A4" s="415" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="419" t="s">
+      <c r="B4" s="417" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="408" t="s">
+      <c r="C4" s="419" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="408" t="s">
+      <c r="D4" s="419" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="408" t="s">
+      <c r="E4" s="419" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="408" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="408" t="s">
+      <c r="F4" s="419" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="419" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="408" t="s">
+      <c r="H4" s="419" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="408" t="s">
+      <c r="I4" s="419" t="s">
         <v>150</v>
       </c>
-      <c r="J4" s="408" t="s">
+      <c r="J4" s="419" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="408" t="s">
+      <c r="K4" s="419" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="408" t="s">
+      <c r="L4" s="419" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="408" t="s">
-        <v>213</v>
-      </c>
-      <c r="N4" s="408" t="s">
+      <c r="M4" s="419" t="s">
+        <v>212</v>
+      </c>
+      <c r="N4" s="419" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="410" t="s">
+      <c r="O4" s="408" t="s">
         <v>111</v>
       </c>
       <c r="P4" s="421" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q4" s="117" t="s">
         <v>4</v>
@@ -6885,21 +6936,21 @@
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="1:24" s="62" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="418"/>
-      <c r="B5" s="420"/>
-      <c r="C5" s="409"/>
-      <c r="D5" s="409"/>
-      <c r="E5" s="409"/>
-      <c r="F5" s="409"/>
-      <c r="G5" s="409"/>
-      <c r="H5" s="409"/>
-      <c r="I5" s="409"/>
-      <c r="J5" s="409"/>
-      <c r="K5" s="409"/>
-      <c r="L5" s="409"/>
-      <c r="M5" s="409"/>
-      <c r="N5" s="409"/>
-      <c r="O5" s="411"/>
+      <c r="A5" s="416"/>
+      <c r="B5" s="418"/>
+      <c r="C5" s="420"/>
+      <c r="D5" s="420"/>
+      <c r="E5" s="420"/>
+      <c r="F5" s="420"/>
+      <c r="G5" s="420"/>
+      <c r="H5" s="420"/>
+      <c r="I5" s="420"/>
+      <c r="J5" s="420"/>
+      <c r="K5" s="420"/>
+      <c r="L5" s="420"/>
+      <c r="M5" s="420"/>
+      <c r="N5" s="420"/>
+      <c r="O5" s="409"/>
       <c r="P5" s="422"/>
       <c r="Q5" s="118" t="s">
         <v>36</v>
@@ -7016,7 +7067,7 @@
     </row>
     <row r="9" spans="1:24" s="13" customFormat="1">
       <c r="A9" s="69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="77">
         <v>100</v>
@@ -7054,7 +7105,7 @@
     </row>
     <row r="10" spans="1:24" s="13" customFormat="1">
       <c r="A10" s="69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" s="77">
         <v>500</v>
@@ -7092,7 +7143,7 @@
     </row>
     <row r="11" spans="1:24" s="13" customFormat="1">
       <c r="A11" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11" s="77"/>
       <c r="C11" s="70"/>
@@ -7126,7 +7177,7 @@
     </row>
     <row r="12" spans="1:24" s="13" customFormat="1">
       <c r="A12" s="69" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" s="77">
         <v>200</v>
@@ -7162,7 +7213,7 @@
     </row>
     <row r="13" spans="1:24" s="13" customFormat="1">
       <c r="A13" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B13" s="77">
         <v>1200</v>
@@ -7200,7 +7251,7 @@
     </row>
     <row r="14" spans="1:24" s="13" customFormat="1">
       <c r="A14" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" s="77"/>
       <c r="C14" s="70"/>
@@ -7234,7 +7285,7 @@
     </row>
     <row r="15" spans="1:24" s="13" customFormat="1">
       <c r="A15" s="69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15" s="77">
         <v>850</v>
@@ -7268,7 +7319,7 @@
     </row>
     <row r="16" spans="1:24" s="13" customFormat="1">
       <c r="A16" s="69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B16" s="77">
         <v>600</v>
@@ -7306,7 +7357,7 @@
     </row>
     <row r="17" spans="1:23" s="13" customFormat="1">
       <c r="A17" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B17" s="77">
         <v>500</v>
@@ -7342,7 +7393,7 @@
     </row>
     <row r="18" spans="1:23" s="13" customFormat="1">
       <c r="A18" s="69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B18" s="77"/>
       <c r="C18" s="70"/>
@@ -7374,7 +7425,7 @@
     </row>
     <row r="19" spans="1:23" s="13" customFormat="1">
       <c r="A19" s="69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B19" s="77">
         <v>700</v>
@@ -7408,7 +7459,7 @@
     </row>
     <row r="20" spans="1:23" s="13" customFormat="1">
       <c r="A20" s="69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B20" s="77">
         <v>600</v>
@@ -7444,7 +7495,7 @@
     </row>
     <row r="21" spans="1:23" s="13" customFormat="1">
       <c r="A21" s="69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B21" s="77"/>
       <c r="C21" s="70"/>
@@ -7474,7 +7525,7 @@
     </row>
     <row r="22" spans="1:23" s="13" customFormat="1">
       <c r="A22" s="69" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B22" s="77">
         <v>1200</v>
@@ -7508,7 +7559,7 @@
     </row>
     <row r="23" spans="1:23" s="85" customFormat="1">
       <c r="A23" s="69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B23" s="77"/>
       <c r="C23" s="70"/>
@@ -7542,7 +7593,7 @@
     </row>
     <row r="24" spans="1:23" s="13" customFormat="1">
       <c r="A24" s="69" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B24" s="77"/>
       <c r="C24" s="70"/>
@@ -7570,7 +7621,7 @@
     </row>
     <row r="25" spans="1:23" s="85" customFormat="1">
       <c r="A25" s="69" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B25" s="77">
         <v>1200</v>
@@ -7602,7 +7653,7 @@
     </row>
     <row r="26" spans="1:23" s="13" customFormat="1">
       <c r="A26" s="69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B26" s="77"/>
       <c r="C26" s="70"/>
@@ -7631,7 +7682,7 @@
     </row>
     <row r="27" spans="1:23" s="13" customFormat="1">
       <c r="A27" s="69" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B27" s="77"/>
       <c r="C27" s="70"/>
@@ -7660,7 +7711,7 @@
     </row>
     <row r="28" spans="1:23" s="13" customFormat="1">
       <c r="A28" s="69" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B28" s="77">
         <v>1200</v>
@@ -7691,7 +7742,7 @@
     </row>
     <row r="29" spans="1:23" s="13" customFormat="1">
       <c r="A29" s="69" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B29" s="77"/>
       <c r="C29" s="70"/>
@@ -7720,7 +7771,7 @@
     </row>
     <row r="30" spans="1:23" s="13" customFormat="1">
       <c r="A30" s="69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B30" s="77"/>
       <c r="C30" s="70"/>
@@ -7753,7 +7804,7 @@
     </row>
     <row r="31" spans="1:23" s="13" customFormat="1">
       <c r="A31" s="69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B31" s="77">
         <v>1200</v>
@@ -7786,7 +7837,7 @@
     </row>
     <row r="32" spans="1:23" s="85" customFormat="1">
       <c r="A32" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B32" s="77"/>
       <c r="C32" s="70"/>
@@ -10002,8 +10053,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -10021,6 +10070,8 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -10798,7 +10849,7 @@
     </row>
     <row r="8" spans="1:96">
       <c r="A8" s="173" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="44">
         <v>93105</v>
@@ -10907,7 +10958,7 @@
     </row>
     <row r="9" spans="1:96">
       <c r="A9" s="173" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B9" s="44">
         <v>96030</v>
@@ -11016,7 +11067,7 @@
     </row>
     <row r="10" spans="1:96">
       <c r="A10" s="173" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="44">
         <v>422791</v>
@@ -11125,7 +11176,7 @@
     </row>
     <row r="11" spans="1:96">
       <c r="A11" s="173" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B11" s="44">
         <v>98042</v>
@@ -11234,7 +11285,7 @@
     </row>
     <row r="12" spans="1:96">
       <c r="A12" s="173" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" s="44">
         <v>328886</v>
@@ -11343,7 +11394,7 @@
     </row>
     <row r="13" spans="1:96">
       <c r="A13" s="173" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13" s="44">
         <v>218759</v>
@@ -11452,7 +11503,7 @@
     </row>
     <row r="14" spans="1:96">
       <c r="A14" s="173" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="44">
         <v>393416</v>
@@ -11561,7 +11612,7 @@
     </row>
     <row r="15" spans="1:96">
       <c r="A15" s="173" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B15" s="44">
         <v>310441</v>
@@ -11670,7 +11721,7 @@
     </row>
     <row r="16" spans="1:96">
       <c r="A16" s="173" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B16" s="44">
         <v>177148</v>
@@ -11779,7 +11830,7 @@
     </row>
     <row r="17" spans="1:96">
       <c r="A17" s="173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B17" s="44">
         <v>306501</v>
@@ -11888,7 +11939,7 @@
     </row>
     <row r="18" spans="1:96">
       <c r="A18" s="173" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B18" s="44">
         <v>436461</v>
@@ -11997,7 +12048,7 @@
     </row>
     <row r="19" spans="1:96">
       <c r="A19" s="173" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B19" s="44">
         <v>506652</v>
@@ -12106,7 +12157,7 @@
     </row>
     <row r="20" spans="1:96">
       <c r="A20" s="173" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B20" s="44">
         <v>915208</v>
@@ -12215,7 +12266,7 @@
     </row>
     <row r="21" spans="1:96">
       <c r="A21" s="173" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B21" s="44">
         <v>109344</v>
@@ -12324,7 +12375,7 @@
     </row>
     <row r="22" spans="1:96">
       <c r="A22" s="173" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B22" s="44">
         <v>231730</v>
@@ -12433,7 +12484,7 @@
     </row>
     <row r="23" spans="1:96">
       <c r="A23" s="173" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B23" s="44">
         <v>128244</v>
@@ -12542,7 +12593,7 @@
     </row>
     <row r="24" spans="1:96">
       <c r="A24" s="173" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B24" s="44">
         <v>505867</v>
@@ -12651,7 +12702,7 @@
     </row>
     <row r="25" spans="1:96">
       <c r="A25" s="173" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B25" s="44">
         <v>147869</v>
@@ -12760,7 +12811,7 @@
     </row>
     <row r="26" spans="1:96">
       <c r="A26" s="173" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B26" s="44">
         <v>1239839</v>
@@ -12869,7 +12920,7 @@
     </row>
     <row r="27" spans="1:96">
       <c r="A27" s="173" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B27" s="44">
         <v>157343</v>
@@ -12978,7 +13029,7 @@
     </row>
     <row r="28" spans="1:96">
       <c r="A28" s="173" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B28" s="44">
         <v>353420</v>
@@ -13087,7 +13138,7 @@
     </row>
     <row r="29" spans="1:96">
       <c r="A29" s="173" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B29" s="44">
         <v>280243</v>
@@ -13196,7 +13247,7 @@
     </row>
     <row r="30" spans="1:96">
       <c r="A30" s="173" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" s="44">
         <v>202424</v>
@@ -13305,7 +13356,7 @@
     </row>
     <row r="31" spans="1:96">
       <c r="A31" s="173" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B31" s="44">
         <v>36819</v>
@@ -14059,7 +14110,7 @@
         <v>12700</v>
       </c>
       <c r="E38" s="167" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F38" s="123"/>
       <c r="G38" s="130"/>
@@ -14275,7 +14326,7 @@
         <v>20000</v>
       </c>
       <c r="E40" s="167" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F40" s="123"/>
       <c r="G40" s="136"/>
@@ -14491,7 +14542,7 @@
         <v>20000</v>
       </c>
       <c r="E42" s="167" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F42" s="129"/>
       <c r="G42" s="138"/>
@@ -14597,7 +14648,7 @@
         <v>11230</v>
       </c>
       <c r="E43" s="167" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F43" s="125"/>
       <c r="G43" s="426"/>
@@ -14699,13 +14750,13 @@
         <v>124</v>
       </c>
       <c r="C44" s="253" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D44" s="197">
         <v>3500</v>
       </c>
       <c r="E44" s="167" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F44" s="126"/>
       <c r="G44" s="164"/>
@@ -14931,7 +14982,7 @@
         <v>85100</v>
       </c>
       <c r="E46" s="281" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F46" s="122"/>
       <c r="G46" s="181" t="s">
@@ -15048,7 +15099,7 @@
         <v>122560</v>
       </c>
       <c r="E47" s="285" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F47" s="123"/>
       <c r="G47" s="178" t="s">
@@ -15155,7 +15206,7 @@
     </row>
     <row r="48" spans="1:96">
       <c r="A48" s="279" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B48" s="286" t="s">
         <v>192</v>
@@ -15165,7 +15216,7 @@
         <v>146300</v>
       </c>
       <c r="E48" s="288" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F48" s="123"/>
       <c r="G48" s="178" t="s">
@@ -15282,7 +15333,7 @@
         <v>76566</v>
       </c>
       <c r="E49" s="285" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F49" s="123"/>
       <c r="G49" s="178" t="s">
@@ -15399,7 +15450,7 @@
         <v>99850</v>
       </c>
       <c r="E50" s="285" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F50" s="123"/>
       <c r="G50" s="166" t="s">
@@ -15516,7 +15567,7 @@
         <v>298379</v>
       </c>
       <c r="E51" s="285" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F51" s="123"/>
       <c r="G51" s="178" t="s">
@@ -15626,14 +15677,14 @@
         <v>79</v>
       </c>
       <c r="B52" s="286" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C52" s="283"/>
       <c r="D52" s="284">
         <v>87193</v>
       </c>
       <c r="E52" s="285" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F52" s="123"/>
       <c r="G52" s="178"/>
@@ -16146,7 +16197,7 @@
         <v>590810</v>
       </c>
       <c r="E57" s="268" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F57" s="123"/>
       <c r="G57" s="178" t="s">
@@ -16263,7 +16314,7 @@
         <v>310000</v>
       </c>
       <c r="E58" s="269" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F58" s="123"/>
       <c r="G58" s="178" t="s">
@@ -16380,7 +16431,7 @@
         <v>245000</v>
       </c>
       <c r="E59" s="269" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F59" s="123"/>
       <c r="G59" s="178" t="s">
@@ -16487,17 +16538,17 @@
     </row>
     <row r="60" spans="1:96">
       <c r="A60" s="264" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" s="271" t="s">
         <v>230</v>
-      </c>
-      <c r="B60" s="271" t="s">
-        <v>231</v>
       </c>
       <c r="C60" s="266"/>
       <c r="D60" s="267">
         <v>70000</v>
       </c>
       <c r="E60" s="268" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F60" s="123"/>
       <c r="G60" s="166" t="s">
@@ -16614,7 +16665,7 @@
         <v>69500</v>
       </c>
       <c r="E61" s="268" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F61" s="125"/>
       <c r="G61" s="178" t="s">
@@ -16724,14 +16775,14 @@
         <v>74</v>
       </c>
       <c r="B62" s="265" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C62" s="266"/>
       <c r="D62" s="267">
         <v>40000</v>
       </c>
       <c r="E62" s="278" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F62" s="122"/>
       <c r="G62" s="178" t="s">
@@ -16838,17 +16889,17 @@
     </row>
     <row r="63" spans="1:96">
       <c r="A63" s="264" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B63" s="265" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C63" s="266"/>
       <c r="D63" s="267">
         <v>110000</v>
       </c>
       <c r="E63" s="269" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F63" s="123"/>
       <c r="G63" s="166"/>
@@ -17361,7 +17412,7 @@
         <v>289103</v>
       </c>
       <c r="E68" s="263" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F68" s="123"/>
       <c r="G68" s="178" t="s">
@@ -17478,7 +17529,7 @@
         <v>366037</v>
       </c>
       <c r="E69" s="263" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F69" s="55"/>
       <c r="G69" s="178" t="s">
@@ -17595,7 +17646,7 @@
         <v>569228</v>
       </c>
       <c r="E70" s="263" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F70" s="294"/>
       <c r="G70" s="166" t="s">
@@ -17712,7 +17763,7 @@
         <v>95565</v>
       </c>
       <c r="E71" s="272" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F71" s="294"/>
       <c r="G71" s="299" t="s">
@@ -17829,7 +17880,7 @@
         <v>445304</v>
       </c>
       <c r="E72" s="262" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F72" s="125"/>
       <c r="G72" s="166" t="s">
@@ -17946,7 +17997,7 @@
         <v>433882</v>
       </c>
       <c r="E73" s="263" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F73" s="125"/>
       <c r="G73" s="178" t="s">
@@ -18056,14 +18107,14 @@
         <v>65</v>
       </c>
       <c r="B74" s="259" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C74" s="260"/>
       <c r="D74" s="334">
         <v>61308</v>
       </c>
       <c r="E74" s="263" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F74" s="294"/>
       <c r="G74" s="166" t="s">
@@ -18951,19 +19002,19 @@
     </row>
     <row r="82" spans="1:96">
       <c r="A82" s="214" t="s">
+        <v>285</v>
+      </c>
+      <c r="B82" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B82" s="49" t="s">
+      <c r="C82" s="111" t="s">
         <v>287</v>
-      </c>
-      <c r="C82" s="111" t="s">
-        <v>288</v>
       </c>
       <c r="D82" s="199">
         <v>9000</v>
       </c>
       <c r="E82" s="169" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F82" s="125"/>
       <c r="G82" s="178"/>
@@ -19164,14 +19215,14 @@
     <row r="84" spans="1:96">
       <c r="A84" s="375"/>
       <c r="B84" s="380" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C84" s="377"/>
       <c r="D84" s="378">
         <v>496960</v>
       </c>
       <c r="E84" s="379" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F84" s="125"/>
       <c r="G84" s="178"/>
@@ -19270,19 +19321,19 @@
     </row>
     <row r="85" spans="1:96">
       <c r="A85" s="375" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B85" s="376" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C85" s="377" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D85" s="378">
         <v>12100</v>
       </c>
       <c r="E85" s="379" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F85" s="125"/>
       <c r="G85" s="178"/>
@@ -19583,19 +19634,19 @@
     </row>
     <row r="88" spans="1:96">
       <c r="A88" s="387" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B88" s="388" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C88" s="377" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D88" s="378">
         <v>17000</v>
       </c>
       <c r="E88" s="379" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F88" s="123"/>
       <c r="G88" s="178"/>
@@ -19795,10 +19846,10 @@
     </row>
     <row r="90" spans="1:96">
       <c r="A90" s="391" t="s">
+        <v>272</v>
+      </c>
+      <c r="B90" s="259" t="s">
         <v>273</v>
-      </c>
-      <c r="B90" s="259" t="s">
-        <v>274</v>
       </c>
       <c r="C90" s="260">
         <v>6000</v>
@@ -19902,10 +19953,10 @@
     </row>
     <row r="91" spans="1:96">
       <c r="A91" s="391" t="s">
+        <v>274</v>
+      </c>
+      <c r="B91" s="259" t="s">
         <v>275</v>
-      </c>
-      <c r="B91" s="259" t="s">
-        <v>276</v>
       </c>
       <c r="C91" s="260">
         <v>3000</v>
@@ -20012,7 +20063,7 @@
         <v>78</v>
       </c>
       <c r="B92" s="259" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C92" s="260">
         <v>3000</v>
@@ -20116,10 +20167,10 @@
     </row>
     <row r="93" spans="1:96">
       <c r="A93" s="258" t="s">
+        <v>276</v>
+      </c>
+      <c r="B93" s="259" t="s">
         <v>277</v>
-      </c>
-      <c r="B93" s="259" t="s">
-        <v>278</v>
       </c>
       <c r="C93" s="260">
         <v>4800</v>
@@ -20223,10 +20274,10 @@
     </row>
     <row r="94" spans="1:96">
       <c r="A94" s="258" t="s">
+        <v>278</v>
+      </c>
+      <c r="B94" s="392" t="s">
         <v>279</v>
-      </c>
-      <c r="B94" s="392" t="s">
-        <v>280</v>
       </c>
       <c r="C94" s="260">
         <v>200</v>
@@ -34070,7 +34121,7 @@
   </sheetPr>
   <dimension ref="A1:R215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -34140,7 +34191,7 @@
     </row>
     <row r="3" spans="1:18" ht="23.25">
       <c r="A3" s="440" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3" s="441"/>
       <c r="C3" s="441"/>
@@ -34380,7 +34431,7 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="219" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H9" s="104"/>
       <c r="I9" s="300" t="s">
@@ -34409,14 +34460,14 @@
     </row>
     <row r="10" spans="1:18" ht="23.25">
       <c r="A10" s="237" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B10" s="222">
         <v>64600</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="346" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E10" s="333">
         <v>-3383230</v>
@@ -34488,7 +34539,7 @@
     </row>
     <row r="12" spans="1:18" ht="21.75">
       <c r="A12" s="239" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B12" s="222">
         <v>220999</v>
@@ -34531,7 +34582,7 @@
     </row>
     <row r="13" spans="1:18" s="254" customFormat="1" ht="21.75">
       <c r="A13" s="311" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B13" s="307">
         <f>B11+B12</f>
@@ -34604,14 +34655,14 @@
     </row>
     <row r="15" spans="1:18" ht="21.75">
       <c r="A15" s="239" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B15" s="222">
         <v>700000</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="297" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E15" s="298">
         <v>229549</v>
@@ -34635,7 +34686,7 @@
     </row>
     <row r="16" spans="1:18" ht="21.75">
       <c r="A16" s="239" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B16" s="222">
         <v>1700000</v>
@@ -34752,7 +34803,7 @@
     </row>
     <row r="20" spans="1:18" ht="21.75" customHeight="1">
       <c r="A20" s="328" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B20" s="330">
         <v>40000</v>
@@ -34815,7 +34866,7 @@
     </row>
     <row r="22" spans="1:18" ht="21.75" customHeight="1">
       <c r="A22" s="243" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B22" s="113">
         <v>122560</v>
@@ -34844,7 +34895,7 @@
     </row>
     <row r="23" spans="1:18" ht="21.75" customHeight="1">
       <c r="A23" s="243" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23" s="113">
         <v>15312</v>
@@ -34886,7 +34937,7 @@
         <v>433882</v>
       </c>
       <c r="I24" s="461" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J24" s="461"/>
       <c r="K24" s="461"/>
@@ -34902,7 +34953,7 @@
     </row>
     <row r="25" spans="1:18" ht="21.75">
       <c r="A25" s="329" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B25" s="331">
         <v>146300</v>
@@ -34915,7 +34966,7 @@
         <v>95565</v>
       </c>
       <c r="I25" s="461" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J25" s="461"/>
       <c r="K25" s="461"/>
@@ -34938,7 +34989,7 @@
       </c>
       <c r="C26" s="343"/>
       <c r="D26" s="344" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E26" s="345">
         <v>61308</v>
@@ -34961,7 +35012,7 @@
     </row>
     <row r="27" spans="1:18" s="254" customFormat="1" ht="21.75">
       <c r="A27" s="341" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B27" s="342">
         <v>70000</v>
@@ -34981,20 +35032,20 @@
     </row>
     <row r="28" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="243" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B28" s="113">
         <v>70000</v>
       </c>
       <c r="C28" s="114"/>
       <c r="D28" s="233" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E28" s="242">
         <v>245000</v>
       </c>
       <c r="I28" s="465" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J28" s="466"/>
       <c r="K28" s="466"/>
@@ -35003,14 +35054,14 @@
     </row>
     <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="243" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B29" s="113">
         <v>110000</v>
       </c>
       <c r="C29" s="114"/>
       <c r="D29" s="233" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E29" s="242">
         <v>69500</v>
@@ -35057,14 +35108,14 @@
     </row>
     <row r="31" spans="1:18" ht="21.75">
       <c r="A31" s="243" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B31" s="113">
         <v>87193</v>
       </c>
       <c r="C31" s="114"/>
       <c r="D31" s="233" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E31" s="242">
         <v>29100</v>
@@ -35078,7 +35129,7 @@
         <v>79500</v>
       </c>
       <c r="M31" s="349" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
@@ -35095,7 +35146,7 @@
       </c>
       <c r="C32" s="396"/>
       <c r="D32" s="397" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E32" s="398">
         <v>496960</v>
@@ -37896,7 +37947,7 @@
       <c r="D2" s="249"/>
       <c r="E2" s="249"/>
       <c r="F2" s="382" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G2" s="383">
         <v>12400</v>
@@ -37979,7 +38030,7 @@
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>165</v>
@@ -38005,7 +38056,7 @@
     </row>
     <row r="7" spans="1:12" ht="15">
       <c r="A7" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>165</v>
@@ -38031,7 +38082,7 @@
     </row>
     <row r="8" spans="1:12" ht="15">
       <c r="A8" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>165</v>
@@ -38056,10 +38107,10 @@
     </row>
     <row r="9" spans="1:12" ht="15">
       <c r="A9" s="350" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="350" t="s">
         <v>222</v>
-      </c>
-      <c r="B9" s="350" t="s">
-        <v>223</v>
       </c>
       <c r="C9" s="293">
         <v>3000</v>
@@ -38081,7 +38132,7 @@
     </row>
     <row r="10" spans="1:12" ht="15">
       <c r="A10" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>165</v>
@@ -38111,7 +38162,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>165</v>
@@ -38136,7 +38187,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>165</v>
@@ -38161,10 +38212,10 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="350" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" s="350" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C13" s="293">
         <v>6000</v>
@@ -38189,7 +38240,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>165</v>
@@ -38211,7 +38262,7 @@
     </row>
     <row r="15" spans="1:12" ht="13.5" thickBot="1">
       <c r="A15" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>165</v>
@@ -38233,7 +38284,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>165</v>
@@ -38244,7 +38295,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="60"/>
       <c r="F16" s="480" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G16" s="481"/>
       <c r="H16" s="482"/>
@@ -38260,7 +38311,7 @@
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1">
       <c r="A17" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>165</v>
@@ -38271,7 +38322,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="217"/>
       <c r="F17" s="477" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G17" s="478"/>
       <c r="H17" s="479"/>
@@ -38287,7 +38338,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>165</v>
@@ -38304,7 +38355,7 @@
         <v>16500</v>
       </c>
       <c r="H18" s="355" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J18" s="306" t="s">
         <v>143</v>
@@ -38318,7 +38369,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>165</v>
@@ -38335,7 +38386,7 @@
         <v>15000</v>
       </c>
       <c r="H19" s="317" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J19" s="305" t="s">
         <v>124</v>
@@ -38349,10 +38400,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="350" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B20" s="350" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C20" s="293">
         <v>40000</v>
@@ -38366,7 +38417,7 @@
         <v>27700</v>
       </c>
       <c r="H20" s="317" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J20" s="308" t="s">
         <v>143</v>
@@ -38380,7 +38431,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>165</v>
@@ -38397,7 +38448,7 @@
         <v>34500</v>
       </c>
       <c r="H21" s="317" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J21" s="309" t="s">
         <v>123</v>
@@ -38411,7 +38462,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>165</v>
@@ -38428,7 +38479,7 @@
         <v>17600</v>
       </c>
       <c r="H22" s="317" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J22" s="306" t="s">
         <v>123</v>
@@ -38442,10 +38493,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="350" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B23" s="350" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C23" s="293">
         <v>2000</v>
@@ -38459,7 +38510,7 @@
         <v>6000</v>
       </c>
       <c r="H23" s="317" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J23" s="310" t="s">
         <v>123</v>
@@ -38473,7 +38524,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>165</v>
@@ -38490,7 +38541,7 @@
         <v>13600</v>
       </c>
       <c r="H24" s="317" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J24" s="306"/>
       <c r="K24" s="306"/>
@@ -38498,7 +38549,7 @@
     </row>
     <row r="25" spans="1:12" ht="15">
       <c r="A25" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>165</v>
@@ -38515,7 +38566,7 @@
         <v>12000</v>
       </c>
       <c r="H25" s="347" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J25" s="304" t="s">
         <v>4</v>
@@ -38528,7 +38579,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>165</v>
@@ -38539,18 +38590,18 @@
       <c r="D26" s="24"/>
       <c r="E26" s="217"/>
       <c r="F26" s="317" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G26" s="317">
         <v>3500</v>
       </c>
       <c r="H26" s="347" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>165</v>
@@ -38567,12 +38618,12 @@
         <v>2000</v>
       </c>
       <c r="H27" s="317" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>165</v>
@@ -38583,18 +38634,18 @@
       <c r="D28" s="24"/>
       <c r="E28" s="217"/>
       <c r="F28" s="357" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G28" s="358">
         <v>100000</v>
       </c>
       <c r="H28" s="357" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>165</v>
@@ -38605,18 +38656,18 @@
       <c r="D29" s="24"/>
       <c r="E29" s="217"/>
       <c r="F29" s="357" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G29" s="358">
         <v>23800</v>
       </c>
       <c r="H29" s="357" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15">
       <c r="A30" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>165</v>
@@ -38627,7 +38678,7 @@
       <c r="D30" s="24"/>
       <c r="E30" s="217"/>
       <c r="F30" s="363" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G30" s="363">
         <f>SUM(G18:G29)</f>
@@ -38637,7 +38688,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>165</v>
@@ -38668,7 +38719,7 @@
       <c r="D33" s="24"/>
       <c r="E33" s="217"/>
       <c r="F33" s="480" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G33" s="481"/>
       <c r="H33" s="482"/>
@@ -38680,7 +38731,7 @@
       <c r="D34" s="24"/>
       <c r="E34" s="217"/>
       <c r="F34" s="477" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G34" s="478"/>
       <c r="H34" s="479"/>
@@ -38698,7 +38749,7 @@
         <v>26500</v>
       </c>
       <c r="H35" s="355" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -38714,7 +38765,7 @@
         <v>39500</v>
       </c>
       <c r="H36" s="317" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -38794,13 +38845,13 @@
       <c r="D44" s="24"/>
       <c r="E44" s="289"/>
       <c r="F44" s="357" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G44" s="358">
         <v>1600</v>
       </c>
       <c r="H44" s="357" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -38810,13 +38861,13 @@
       <c r="D45" s="24"/>
       <c r="E45" s="289"/>
       <c r="F45" s="357" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G45" s="358">
         <v>182000</v>
       </c>
       <c r="H45" s="357" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -38826,13 +38877,13 @@
       <c r="D46" s="24"/>
       <c r="E46" s="289"/>
       <c r="F46" s="357" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G46" s="358">
         <v>3600</v>
       </c>
       <c r="H46" s="357" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15">
@@ -38842,7 +38893,7 @@
       <c r="D47" s="24"/>
       <c r="E47" s="289"/>
       <c r="F47" s="363" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G47" s="363">
         <f>SUM(G35:G46)</f>
@@ -39057,13 +39108,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
@@ -39075,21 +39129,53 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5000</v>
+        <v>6600</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2000</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
         <f>SUM(A1:A3)</f>
-        <v>23800</v>
+        <v>23400</v>
+      </c>
+      <c r="B4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>10200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <f>A4-A5</f>
+        <v>13200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>8400</v>
+      </c>
+      <c r="B7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <f>A6-A7</f>
+        <v>4800</v>
+      </c>
+      <c r="B8" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/2022/SAMSUNG/AUGUST/31.08.2022/SAMSUNG Bank Statement August-2022.xlsx
+++ b/2022/SAMSUNG/AUGUST/31.08.2022/SAMSUNG Bank Statement August-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3669,6 +3669,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3700,12 +3706,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6787,9 +6787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6809,67 +6809,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="410" t="s">
+      <c r="A1" s="412" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="410"/>
-      <c r="C1" s="410"/>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
-      <c r="N1" s="410"/>
-      <c r="O1" s="410"/>
-      <c r="P1" s="410"/>
-      <c r="Q1" s="410"/>
+      <c r="B1" s="412"/>
+      <c r="C1" s="412"/>
+      <c r="D1" s="412"/>
+      <c r="E1" s="412"/>
+      <c r="F1" s="412"/>
+      <c r="G1" s="412"/>
+      <c r="H1" s="412"/>
+      <c r="I1" s="412"/>
+      <c r="J1" s="412"/>
+      <c r="K1" s="412"/>
+      <c r="L1" s="412"/>
+      <c r="M1" s="412"/>
+      <c r="N1" s="412"/>
+      <c r="O1" s="412"/>
+      <c r="P1" s="412"/>
+      <c r="Q1" s="412"/>
     </row>
     <row r="2" spans="1:24" s="60" customFormat="1" ht="18">
-      <c r="A2" s="411" t="s">
+      <c r="A2" s="413" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="411"/>
-      <c r="C2" s="411"/>
-      <c r="D2" s="411"/>
-      <c r="E2" s="411"/>
-      <c r="F2" s="411"/>
-      <c r="G2" s="411"/>
-      <c r="H2" s="411"/>
-      <c r="I2" s="411"/>
-      <c r="J2" s="411"/>
-      <c r="K2" s="411"/>
-      <c r="L2" s="411"/>
-      <c r="M2" s="411"/>
-      <c r="N2" s="411"/>
-      <c r="O2" s="411"/>
-      <c r="P2" s="411"/>
-      <c r="Q2" s="411"/>
+      <c r="B2" s="413"/>
+      <c r="C2" s="413"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="413"/>
+      <c r="F2" s="413"/>
+      <c r="G2" s="413"/>
+      <c r="H2" s="413"/>
+      <c r="I2" s="413"/>
+      <c r="J2" s="413"/>
+      <c r="K2" s="413"/>
+      <c r="L2" s="413"/>
+      <c r="M2" s="413"/>
+      <c r="N2" s="413"/>
+      <c r="O2" s="413"/>
+      <c r="P2" s="413"/>
+      <c r="Q2" s="413"/>
     </row>
     <row r="3" spans="1:24" s="61" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="412" t="s">
+      <c r="A3" s="414" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="413"/>
-      <c r="C3" s="413"/>
-      <c r="D3" s="413"/>
-      <c r="E3" s="413"/>
-      <c r="F3" s="413"/>
-      <c r="G3" s="413"/>
-      <c r="H3" s="413"/>
-      <c r="I3" s="413"/>
-      <c r="J3" s="413"/>
-      <c r="K3" s="413"/>
-      <c r="L3" s="413"/>
-      <c r="M3" s="413"/>
-      <c r="N3" s="413"/>
-      <c r="O3" s="413"/>
-      <c r="P3" s="413"/>
-      <c r="Q3" s="414"/>
+      <c r="B3" s="415"/>
+      <c r="C3" s="415"/>
+      <c r="D3" s="415"/>
+      <c r="E3" s="415"/>
+      <c r="F3" s="415"/>
+      <c r="G3" s="415"/>
+      <c r="H3" s="415"/>
+      <c r="I3" s="415"/>
+      <c r="J3" s="415"/>
+      <c r="K3" s="415"/>
+      <c r="L3" s="415"/>
+      <c r="M3" s="415"/>
+      <c r="N3" s="415"/>
+      <c r="O3" s="415"/>
+      <c r="P3" s="415"/>
+      <c r="Q3" s="416"/>
       <c r="S3" s="45"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6878,49 +6878,49 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="62" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="415" t="s">
+      <c r="A4" s="417" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="417" t="s">
+      <c r="B4" s="419" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="419" t="s">
+      <c r="C4" s="408" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="419" t="s">
+      <c r="D4" s="408" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="419" t="s">
+      <c r="E4" s="408" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="419" t="s">
+      <c r="F4" s="408" t="s">
         <v>239</v>
       </c>
-      <c r="G4" s="419" t="s">
+      <c r="G4" s="408" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="419" t="s">
+      <c r="H4" s="408" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="419" t="s">
+      <c r="I4" s="408" t="s">
         <v>150</v>
       </c>
-      <c r="J4" s="419" t="s">
+      <c r="J4" s="408" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="419" t="s">
+      <c r="K4" s="408" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="419" t="s">
+      <c r="L4" s="408" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="419" t="s">
+      <c r="M4" s="408" t="s">
         <v>212</v>
       </c>
-      <c r="N4" s="419" t="s">
+      <c r="N4" s="408" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="408" t="s">
+      <c r="O4" s="410" t="s">
         <v>111</v>
       </c>
       <c r="P4" s="421" t="s">
@@ -6936,21 +6936,21 @@
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="1:24" s="62" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="416"/>
-      <c r="B5" s="418"/>
-      <c r="C5" s="420"/>
-      <c r="D5" s="420"/>
-      <c r="E5" s="420"/>
-      <c r="F5" s="420"/>
-      <c r="G5" s="420"/>
-      <c r="H5" s="420"/>
-      <c r="I5" s="420"/>
-      <c r="J5" s="420"/>
-      <c r="K5" s="420"/>
-      <c r="L5" s="420"/>
-      <c r="M5" s="420"/>
-      <c r="N5" s="420"/>
-      <c r="O5" s="409"/>
+      <c r="A5" s="418"/>
+      <c r="B5" s="420"/>
+      <c r="C5" s="409"/>
+      <c r="D5" s="409"/>
+      <c r="E5" s="409"/>
+      <c r="F5" s="409"/>
+      <c r="G5" s="409"/>
+      <c r="H5" s="409"/>
+      <c r="I5" s="409"/>
+      <c r="J5" s="409"/>
+      <c r="K5" s="409"/>
+      <c r="L5" s="409"/>
+      <c r="M5" s="409"/>
+      <c r="N5" s="409"/>
+      <c r="O5" s="411"/>
       <c r="P5" s="422"/>
       <c r="Q5" s="118" t="s">
         <v>36</v>
@@ -10053,8 +10053,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -10072,6 +10070,8 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -34121,8 +34121,8 @@
   </sheetPr>
   <dimension ref="A1:R215"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -37908,8 +37908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/2022/SAMSUNG/AUGUST/31.08.2022/SAMSUNG Bank Statement August-2022.xlsx
+++ b/2022/SAMSUNG/AUGUST/31.08.2022/SAMSUNG Bank Statement August-2022.xlsx
@@ -3756,6 +3756,66 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3799,66 +3859,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10053,6 +10053,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -10069,9 +10072,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -34148,13 +34148,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="437" t="s">
+      <c r="A1" s="457" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="438"/>
-      <c r="C1" s="438"/>
-      <c r="D1" s="438"/>
-      <c r="E1" s="439"/>
+      <c r="B1" s="458"/>
+      <c r="C1" s="458"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="459"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -34163,13 +34163,13 @@
       <c r="K1" s="452"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="446" t="s">
+      <c r="A2" s="466" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="447"/>
-      <c r="C2" s="447"/>
-      <c r="D2" s="447"/>
-      <c r="E2" s="448"/>
+      <c r="B2" s="467"/>
+      <c r="C2" s="467"/>
+      <c r="D2" s="467"/>
+      <c r="E2" s="468"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -34190,13 +34190,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="440" t="s">
+      <c r="A3" s="460" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="441"/>
-      <c r="C3" s="441"/>
-      <c r="D3" s="441"/>
-      <c r="E3" s="442"/>
+      <c r="B3" s="461"/>
+      <c r="C3" s="461"/>
+      <c r="D3" s="461"/>
+      <c r="E3" s="462"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -34223,13 +34223,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="449" t="s">
+      <c r="A4" s="469" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="450"/>
-      <c r="C4" s="450"/>
-      <c r="D4" s="450"/>
-      <c r="E4" s="451"/>
+      <c r="B4" s="470"/>
+      <c r="C4" s="470"/>
+      <c r="D4" s="470"/>
+      <c r="E4" s="471"/>
       <c r="F4" s="5"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
@@ -34733,11 +34733,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="275"/>
-      <c r="I17" s="453" t="s">
+      <c r="I17" s="443" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="453"/>
-      <c r="K17" s="453"/>
+      <c r="J17" s="443"/>
+      <c r="K17" s="443"/>
       <c r="L17" s="303">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -34760,11 +34760,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="275"/>
-      <c r="I18" s="454" t="s">
+      <c r="I18" s="453" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="454"/>
-      <c r="K18" s="454"/>
+      <c r="J18" s="453"/>
+      <c r="K18" s="453"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -34776,21 +34776,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="443" t="s">
+      <c r="A19" s="463" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="444"/>
-      <c r="C19" s="444"/>
-      <c r="D19" s="444"/>
-      <c r="E19" s="445"/>
+      <c r="B19" s="464"/>
+      <c r="C19" s="464"/>
+      <c r="D19" s="464"/>
+      <c r="E19" s="465"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="461" t="s">
+      <c r="I19" s="448" t="s">
         <v>159</v>
       </c>
-      <c r="J19" s="461"/>
-      <c r="K19" s="461"/>
+      <c r="J19" s="448"/>
+      <c r="K19" s="448"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -34818,11 +34818,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="455" t="s">
+      <c r="I20" s="445" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="455"/>
-      <c r="K20" s="455"/>
+      <c r="J20" s="445"/>
+      <c r="K20" s="445"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -34849,11 +34849,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="456" t="s">
+      <c r="I21" s="454" t="s">
         <v>158</v>
       </c>
-      <c r="J21" s="457"/>
-      <c r="K21" s="458"/>
+      <c r="J21" s="455"/>
+      <c r="K21" s="456"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -34878,11 +34878,11 @@
       <c r="E22" s="242">
         <v>366037</v>
       </c>
-      <c r="I22" s="461" t="s">
+      <c r="I22" s="448" t="s">
         <v>161</v>
       </c>
-      <c r="J22" s="461"/>
-      <c r="K22" s="461"/>
+      <c r="J22" s="448"/>
+      <c r="K22" s="448"/>
       <c r="L22" s="332">
         <v>20000</v>
       </c>
@@ -34907,11 +34907,11 @@
       <c r="E23" s="242">
         <v>445304</v>
       </c>
-      <c r="I23" s="462" t="s">
+      <c r="I23" s="440" t="s">
         <v>182</v>
       </c>
-      <c r="J23" s="463"/>
-      <c r="K23" s="464"/>
+      <c r="J23" s="441"/>
+      <c r="K23" s="442"/>
       <c r="L23" s="332">
         <v>40000</v>
       </c>
@@ -34936,11 +34936,11 @@
       <c r="E24" s="296">
         <v>433882</v>
       </c>
-      <c r="I24" s="461" t="s">
+      <c r="I24" s="448" t="s">
         <v>216</v>
       </c>
-      <c r="J24" s="461"/>
-      <c r="K24" s="461"/>
+      <c r="J24" s="448"/>
+      <c r="K24" s="448"/>
       <c r="L24" s="317">
         <v>30000</v>
       </c>
@@ -34965,11 +34965,11 @@
       <c r="E25" s="242">
         <v>95565</v>
       </c>
-      <c r="I25" s="461" t="s">
+      <c r="I25" s="448" t="s">
         <v>268</v>
       </c>
-      <c r="J25" s="461"/>
-      <c r="K25" s="461"/>
+      <c r="J25" s="448"/>
+      <c r="K25" s="448"/>
       <c r="L25" s="317">
         <v>20000</v>
       </c>
@@ -34994,11 +34994,11 @@
       <c r="E26" s="345">
         <v>61308</v>
       </c>
-      <c r="I26" s="453" t="s">
+      <c r="I26" s="443" t="s">
         <v>162</v>
       </c>
-      <c r="J26" s="453"/>
-      <c r="K26" s="453"/>
+      <c r="J26" s="443"/>
+      <c r="K26" s="443"/>
       <c r="L26" s="303">
         <f>L17-L18-L19-L20-L21-L22-L23-L24-L25</f>
         <v>78150</v>
@@ -35044,13 +35044,13 @@
       <c r="E28" s="242">
         <v>245000</v>
       </c>
-      <c r="I28" s="465" t="s">
+      <c r="I28" s="449" t="s">
         <v>224</v>
       </c>
-      <c r="J28" s="466"/>
-      <c r="K28" s="466"/>
-      <c r="L28" s="466"/>
-      <c r="M28" s="467"/>
+      <c r="J28" s="450"/>
+      <c r="K28" s="450"/>
+      <c r="L28" s="450"/>
+      <c r="M28" s="451"/>
     </row>
     <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="243" t="s">
@@ -35066,11 +35066,11 @@
       <c r="E29" s="242">
         <v>69500</v>
       </c>
-      <c r="I29" s="459" t="s">
+      <c r="I29" s="446" t="s">
         <v>126</v>
       </c>
-      <c r="J29" s="459"/>
-      <c r="K29" s="460"/>
+      <c r="J29" s="446"/>
+      <c r="K29" s="447"/>
       <c r="L29" s="351">
         <v>213170</v>
       </c>
@@ -35120,11 +35120,11 @@
       <c r="E31" s="242">
         <v>29100</v>
       </c>
-      <c r="I31" s="471" t="s">
+      <c r="I31" s="444" t="s">
         <v>153</v>
       </c>
-      <c r="J31" s="455"/>
-      <c r="K31" s="455"/>
+      <c r="J31" s="445"/>
+      <c r="K31" s="445"/>
       <c r="L31" s="349">
         <v>79500</v>
       </c>
@@ -35151,11 +35151,11 @@
       <c r="E32" s="398">
         <v>496960</v>
       </c>
-      <c r="I32" s="471" t="s">
+      <c r="I32" s="444" t="s">
         <v>153</v>
       </c>
-      <c r="J32" s="455"/>
-      <c r="K32" s="455"/>
+      <c r="J32" s="445"/>
+      <c r="K32" s="445"/>
       <c r="L32" s="349">
         <v>47500</v>
       </c>
@@ -35169,11 +35169,11 @@
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="2:18">
-      <c r="I33" s="468" t="s">
+      <c r="I33" s="437" t="s">
         <v>153</v>
       </c>
-      <c r="J33" s="469"/>
-      <c r="K33" s="470"/>
+      <c r="J33" s="438"/>
+      <c r="K33" s="439"/>
       <c r="L33" s="349">
         <v>50000</v>
       </c>
@@ -35187,9 +35187,9 @@
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="I34" s="462"/>
-      <c r="J34" s="463"/>
-      <c r="K34" s="464"/>
+      <c r="I34" s="440"/>
+      <c r="J34" s="441"/>
+      <c r="K34" s="442"/>
       <c r="L34" s="349"/>
       <c r="M34" s="349"/>
       <c r="N34" s="7"/>
@@ -35199,11 +35199,11 @@
       <c r="R34" s="7"/>
     </row>
     <row r="35" spans="2:18" ht="15.75">
-      <c r="I35" s="453" t="s">
+      <c r="I35" s="443" t="s">
         <v>97</v>
       </c>
-      <c r="J35" s="453"/>
-      <c r="K35" s="453"/>
+      <c r="J35" s="443"/>
+      <c r="K35" s="443"/>
       <c r="L35" s="348">
         <f>L29-L31-L32-L33-L34</f>
         <v>36170</v>
@@ -37873,11 +37873,16 @@
     <sortCondition ref="A20"/>
   </sortState>
   <mergeCells count="23">
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="I19:K19"/>
@@ -37886,16 +37891,11 @@
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I31:K31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
@@ -37909,7 +37909,7 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/2022/SAMSUNG/AUGUST/31.08.2022/SAMSUNG Bank Statement August-2022.xlsx
+++ b/2022/SAMSUNG/AUGUST/31.08.2022/SAMSUNG Bank Statement August-2022.xlsx
@@ -3756,6 +3756,99 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3765,100 +3858,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10053,11 +10053,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -10072,6 +10067,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -34148,13 +34148,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="457" t="s">
+      <c r="A1" s="437" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="458"/>
-      <c r="C1" s="458"/>
-      <c r="D1" s="458"/>
-      <c r="E1" s="459"/>
+      <c r="B1" s="438"/>
+      <c r="C1" s="438"/>
+      <c r="D1" s="438"/>
+      <c r="E1" s="439"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -34163,13 +34163,13 @@
       <c r="K1" s="452"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="466" t="s">
+      <c r="A2" s="446" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="467"/>
-      <c r="C2" s="467"/>
-      <c r="D2" s="467"/>
-      <c r="E2" s="468"/>
+      <c r="B2" s="447"/>
+      <c r="C2" s="447"/>
+      <c r="D2" s="447"/>
+      <c r="E2" s="448"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -34190,13 +34190,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="460" t="s">
+      <c r="A3" s="440" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="461"/>
-      <c r="C3" s="461"/>
-      <c r="D3" s="461"/>
-      <c r="E3" s="462"/>
+      <c r="B3" s="441"/>
+      <c r="C3" s="441"/>
+      <c r="D3" s="441"/>
+      <c r="E3" s="442"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -34223,13 +34223,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="469" t="s">
+      <c r="A4" s="449" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="470"/>
-      <c r="C4" s="470"/>
-      <c r="D4" s="470"/>
-      <c r="E4" s="471"/>
+      <c r="B4" s="450"/>
+      <c r="C4" s="450"/>
+      <c r="D4" s="450"/>
+      <c r="E4" s="451"/>
       <c r="F4" s="5"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
@@ -34733,11 +34733,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="275"/>
-      <c r="I17" s="443" t="s">
+      <c r="I17" s="453" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="443"/>
-      <c r="K17" s="443"/>
+      <c r="J17" s="453"/>
+      <c r="K17" s="453"/>
       <c r="L17" s="303">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -34760,11 +34760,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="275"/>
-      <c r="I18" s="453" t="s">
+      <c r="I18" s="454" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="453"/>
-      <c r="K18" s="453"/>
+      <c r="J18" s="454"/>
+      <c r="K18" s="454"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -34776,21 +34776,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="463" t="s">
+      <c r="A19" s="443" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="464"/>
-      <c r="C19" s="464"/>
-      <c r="D19" s="464"/>
-      <c r="E19" s="465"/>
+      <c r="B19" s="444"/>
+      <c r="C19" s="444"/>
+      <c r="D19" s="444"/>
+      <c r="E19" s="445"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="448" t="s">
+      <c r="I19" s="461" t="s">
         <v>159</v>
       </c>
-      <c r="J19" s="448"/>
-      <c r="K19" s="448"/>
+      <c r="J19" s="461"/>
+      <c r="K19" s="461"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -34818,11 +34818,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="445" t="s">
+      <c r="I20" s="455" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="445"/>
-      <c r="K20" s="445"/>
+      <c r="J20" s="455"/>
+      <c r="K20" s="455"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -34849,11 +34849,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="454" t="s">
+      <c r="I21" s="456" t="s">
         <v>158</v>
       </c>
-      <c r="J21" s="455"/>
-      <c r="K21" s="456"/>
+      <c r="J21" s="457"/>
+      <c r="K21" s="458"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -34878,11 +34878,11 @@
       <c r="E22" s="242">
         <v>366037</v>
       </c>
-      <c r="I22" s="448" t="s">
+      <c r="I22" s="461" t="s">
         <v>161</v>
       </c>
-      <c r="J22" s="448"/>
-      <c r="K22" s="448"/>
+      <c r="J22" s="461"/>
+      <c r="K22" s="461"/>
       <c r="L22" s="332">
         <v>20000</v>
       </c>
@@ -34907,11 +34907,11 @@
       <c r="E23" s="242">
         <v>445304</v>
       </c>
-      <c r="I23" s="440" t="s">
+      <c r="I23" s="462" t="s">
         <v>182</v>
       </c>
-      <c r="J23" s="441"/>
-      <c r="K23" s="442"/>
+      <c r="J23" s="463"/>
+      <c r="K23" s="464"/>
       <c r="L23" s="332">
         <v>40000</v>
       </c>
@@ -34936,11 +34936,11 @@
       <c r="E24" s="296">
         <v>433882</v>
       </c>
-      <c r="I24" s="448" t="s">
+      <c r="I24" s="461" t="s">
         <v>216</v>
       </c>
-      <c r="J24" s="448"/>
-      <c r="K24" s="448"/>
+      <c r="J24" s="461"/>
+      <c r="K24" s="461"/>
       <c r="L24" s="317">
         <v>30000</v>
       </c>
@@ -34965,11 +34965,11 @@
       <c r="E25" s="242">
         <v>95565</v>
       </c>
-      <c r="I25" s="448" t="s">
+      <c r="I25" s="461" t="s">
         <v>268</v>
       </c>
-      <c r="J25" s="448"/>
-      <c r="K25" s="448"/>
+      <c r="J25" s="461"/>
+      <c r="K25" s="461"/>
       <c r="L25" s="317">
         <v>20000</v>
       </c>
@@ -34994,11 +34994,11 @@
       <c r="E26" s="345">
         <v>61308</v>
       </c>
-      <c r="I26" s="443" t="s">
+      <c r="I26" s="453" t="s">
         <v>162</v>
       </c>
-      <c r="J26" s="443"/>
-      <c r="K26" s="443"/>
+      <c r="J26" s="453"/>
+      <c r="K26" s="453"/>
       <c r="L26" s="303">
         <f>L17-L18-L19-L20-L21-L22-L23-L24-L25</f>
         <v>78150</v>
@@ -35044,13 +35044,13 @@
       <c r="E28" s="242">
         <v>245000</v>
       </c>
-      <c r="I28" s="449" t="s">
+      <c r="I28" s="465" t="s">
         <v>224</v>
       </c>
-      <c r="J28" s="450"/>
-      <c r="K28" s="450"/>
-      <c r="L28" s="450"/>
-      <c r="M28" s="451"/>
+      <c r="J28" s="466"/>
+      <c r="K28" s="466"/>
+      <c r="L28" s="466"/>
+      <c r="M28" s="467"/>
     </row>
     <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="243" t="s">
@@ -35066,11 +35066,11 @@
       <c r="E29" s="242">
         <v>69500</v>
       </c>
-      <c r="I29" s="446" t="s">
+      <c r="I29" s="459" t="s">
         <v>126</v>
       </c>
-      <c r="J29" s="446"/>
-      <c r="K29" s="447"/>
+      <c r="J29" s="459"/>
+      <c r="K29" s="460"/>
       <c r="L29" s="351">
         <v>213170</v>
       </c>
@@ -35120,11 +35120,11 @@
       <c r="E31" s="242">
         <v>29100</v>
       </c>
-      <c r="I31" s="444" t="s">
+      <c r="I31" s="471" t="s">
         <v>153</v>
       </c>
-      <c r="J31" s="445"/>
-      <c r="K31" s="445"/>
+      <c r="J31" s="455"/>
+      <c r="K31" s="455"/>
       <c r="L31" s="349">
         <v>79500</v>
       </c>
@@ -35151,11 +35151,11 @@
       <c r="E32" s="398">
         <v>496960</v>
       </c>
-      <c r="I32" s="444" t="s">
+      <c r="I32" s="471" t="s">
         <v>153</v>
       </c>
-      <c r="J32" s="445"/>
-      <c r="K32" s="445"/>
+      <c r="J32" s="455"/>
+      <c r="K32" s="455"/>
       <c r="L32" s="349">
         <v>47500</v>
       </c>
@@ -35169,11 +35169,11 @@
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="2:18">
-      <c r="I33" s="437" t="s">
+      <c r="I33" s="468" t="s">
         <v>153</v>
       </c>
-      <c r="J33" s="438"/>
-      <c r="K33" s="439"/>
+      <c r="J33" s="469"/>
+      <c r="K33" s="470"/>
       <c r="L33" s="349">
         <v>50000</v>
       </c>
@@ -35187,9 +35187,9 @@
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="I34" s="440"/>
-      <c r="J34" s="441"/>
-      <c r="K34" s="442"/>
+      <c r="I34" s="462"/>
+      <c r="J34" s="463"/>
+      <c r="K34" s="464"/>
       <c r="L34" s="349"/>
       <c r="M34" s="349"/>
       <c r="N34" s="7"/>
@@ -35199,11 +35199,11 @@
       <c r="R34" s="7"/>
     </row>
     <row r="35" spans="2:18" ht="15.75">
-      <c r="I35" s="443" t="s">
+      <c r="I35" s="453" t="s">
         <v>97</v>
       </c>
-      <c r="J35" s="443"/>
-      <c r="K35" s="443"/>
+      <c r="J35" s="453"/>
+      <c r="K35" s="453"/>
       <c r="L35" s="348">
         <f>L29-L31-L32-L33-L34</f>
         <v>36170</v>
@@ -37873,16 +37873,11 @@
     <sortCondition ref="A20"/>
   </sortState>
   <mergeCells count="23">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I31:K31"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="I19:K19"/>
@@ -37891,11 +37886,16 @@
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
@@ -37908,8 +37908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/2022/SAMSUNG/AUGUST/31.08.2022/SAMSUNG Bank Statement August-2022.xlsx
+++ b/2022/SAMSUNG/AUGUST/31.08.2022/SAMSUNG Bank Statement August-2022.xlsx
@@ -1406,7 +1406,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1679,6 +1679,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2490,7 +2496,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="483">
+  <cellXfs count="485">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3669,51 +3675,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3756,6 +3762,66 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3801,66 +3867,6 @@
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3893,6 +3899,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="49" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -6809,67 +6821,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="412" t="s">
+      <c r="A1" s="408" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="412"/>
-      <c r="C1" s="412"/>
-      <c r="D1" s="412"/>
-      <c r="E1" s="412"/>
-      <c r="F1" s="412"/>
-      <c r="G1" s="412"/>
-      <c r="H1" s="412"/>
-      <c r="I1" s="412"/>
-      <c r="J1" s="412"/>
-      <c r="K1" s="412"/>
-      <c r="L1" s="412"/>
-      <c r="M1" s="412"/>
-      <c r="N1" s="412"/>
-      <c r="O1" s="412"/>
-      <c r="P1" s="412"/>
-      <c r="Q1" s="412"/>
+      <c r="B1" s="408"/>
+      <c r="C1" s="408"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="408"/>
+      <c r="H1" s="408"/>
+      <c r="I1" s="408"/>
+      <c r="J1" s="408"/>
+      <c r="K1" s="408"/>
+      <c r="L1" s="408"/>
+      <c r="M1" s="408"/>
+      <c r="N1" s="408"/>
+      <c r="O1" s="408"/>
+      <c r="P1" s="408"/>
+      <c r="Q1" s="408"/>
     </row>
     <row r="2" spans="1:24" s="60" customFormat="1" ht="18">
-      <c r="A2" s="413" t="s">
+      <c r="A2" s="409" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="413"/>
-      <c r="C2" s="413"/>
-      <c r="D2" s="413"/>
-      <c r="E2" s="413"/>
-      <c r="F2" s="413"/>
-      <c r="G2" s="413"/>
-      <c r="H2" s="413"/>
-      <c r="I2" s="413"/>
-      <c r="J2" s="413"/>
-      <c r="K2" s="413"/>
-      <c r="L2" s="413"/>
-      <c r="M2" s="413"/>
-      <c r="N2" s="413"/>
-      <c r="O2" s="413"/>
-      <c r="P2" s="413"/>
-      <c r="Q2" s="413"/>
+      <c r="B2" s="409"/>
+      <c r="C2" s="409"/>
+      <c r="D2" s="409"/>
+      <c r="E2" s="409"/>
+      <c r="F2" s="409"/>
+      <c r="G2" s="409"/>
+      <c r="H2" s="409"/>
+      <c r="I2" s="409"/>
+      <c r="J2" s="409"/>
+      <c r="K2" s="409"/>
+      <c r="L2" s="409"/>
+      <c r="M2" s="409"/>
+      <c r="N2" s="409"/>
+      <c r="O2" s="409"/>
+      <c r="P2" s="409"/>
+      <c r="Q2" s="409"/>
     </row>
     <row r="3" spans="1:24" s="61" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="414" t="s">
+      <c r="A3" s="410" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="415"/>
-      <c r="C3" s="415"/>
-      <c r="D3" s="415"/>
-      <c r="E3" s="415"/>
-      <c r="F3" s="415"/>
-      <c r="G3" s="415"/>
-      <c r="H3" s="415"/>
-      <c r="I3" s="415"/>
-      <c r="J3" s="415"/>
-      <c r="K3" s="415"/>
-      <c r="L3" s="415"/>
-      <c r="M3" s="415"/>
-      <c r="N3" s="415"/>
-      <c r="O3" s="415"/>
-      <c r="P3" s="415"/>
-      <c r="Q3" s="416"/>
+      <c r="B3" s="411"/>
+      <c r="C3" s="411"/>
+      <c r="D3" s="411"/>
+      <c r="E3" s="411"/>
+      <c r="F3" s="411"/>
+      <c r="G3" s="411"/>
+      <c r="H3" s="411"/>
+      <c r="I3" s="411"/>
+      <c r="J3" s="411"/>
+      <c r="K3" s="411"/>
+      <c r="L3" s="411"/>
+      <c r="M3" s="411"/>
+      <c r="N3" s="411"/>
+      <c r="O3" s="411"/>
+      <c r="P3" s="411"/>
+      <c r="Q3" s="412"/>
       <c r="S3" s="45"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6878,52 +6890,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="62" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="417" t="s">
+      <c r="A4" s="413" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="419" t="s">
+      <c r="B4" s="415" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="408" t="s">
+      <c r="C4" s="417" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="408" t="s">
+      <c r="D4" s="417" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="408" t="s">
+      <c r="E4" s="417" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="408" t="s">
+      <c r="F4" s="417" t="s">
         <v>239</v>
       </c>
-      <c r="G4" s="408" t="s">
+      <c r="G4" s="417" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="408" t="s">
+      <c r="H4" s="417" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="408" t="s">
+      <c r="I4" s="417" t="s">
         <v>150</v>
       </c>
-      <c r="J4" s="408" t="s">
+      <c r="J4" s="417" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="408" t="s">
+      <c r="K4" s="417" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="408" t="s">
+      <c r="L4" s="417" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="408" t="s">
+      <c r="M4" s="417" t="s">
         <v>212</v>
       </c>
-      <c r="N4" s="408" t="s">
+      <c r="N4" s="417" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="410" t="s">
+      <c r="O4" s="421" t="s">
         <v>111</v>
       </c>
-      <c r="P4" s="421" t="s">
+      <c r="P4" s="419" t="s">
         <v>249</v>
       </c>
       <c r="Q4" s="117" t="s">
@@ -6936,22 +6948,22 @@
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="1:24" s="62" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="418"/>
-      <c r="B5" s="420"/>
-      <c r="C5" s="409"/>
-      <c r="D5" s="409"/>
-      <c r="E5" s="409"/>
-      <c r="F5" s="409"/>
-      <c r="G5" s="409"/>
-      <c r="H5" s="409"/>
-      <c r="I5" s="409"/>
-      <c r="J5" s="409"/>
-      <c r="K5" s="409"/>
-      <c r="L5" s="409"/>
-      <c r="M5" s="409"/>
-      <c r="N5" s="409"/>
-      <c r="O5" s="411"/>
-      <c r="P5" s="422"/>
+      <c r="A5" s="414"/>
+      <c r="B5" s="416"/>
+      <c r="C5" s="418"/>
+      <c r="D5" s="418"/>
+      <c r="E5" s="418"/>
+      <c r="F5" s="418"/>
+      <c r="G5" s="418"/>
+      <c r="H5" s="418"/>
+      <c r="I5" s="418"/>
+      <c r="J5" s="418"/>
+      <c r="K5" s="418"/>
+      <c r="L5" s="418"/>
+      <c r="M5" s="418"/>
+      <c r="N5" s="418"/>
+      <c r="O5" s="422"/>
+      <c r="P5" s="420"/>
       <c r="Q5" s="118" t="s">
         <v>36</v>
       </c>
@@ -10053,6 +10065,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -10069,9 +10084,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -34148,13 +34160,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="437" t="s">
+      <c r="A1" s="457" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="438"/>
-      <c r="C1" s="438"/>
-      <c r="D1" s="438"/>
-      <c r="E1" s="439"/>
+      <c r="B1" s="458"/>
+      <c r="C1" s="458"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="459"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -34163,13 +34175,13 @@
       <c r="K1" s="452"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="446" t="s">
+      <c r="A2" s="466" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="447"/>
-      <c r="C2" s="447"/>
-      <c r="D2" s="447"/>
-      <c r="E2" s="448"/>
+      <c r="B2" s="467"/>
+      <c r="C2" s="467"/>
+      <c r="D2" s="467"/>
+      <c r="E2" s="468"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -34190,13 +34202,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="440" t="s">
+      <c r="A3" s="460" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="441"/>
-      <c r="C3" s="441"/>
-      <c r="D3" s="441"/>
-      <c r="E3" s="442"/>
+      <c r="B3" s="461"/>
+      <c r="C3" s="461"/>
+      <c r="D3" s="461"/>
+      <c r="E3" s="462"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -34223,13 +34235,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="449" t="s">
+      <c r="A4" s="469" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="450"/>
-      <c r="C4" s="450"/>
-      <c r="D4" s="450"/>
-      <c r="E4" s="451"/>
+      <c r="B4" s="470"/>
+      <c r="C4" s="470"/>
+      <c r="D4" s="470"/>
+      <c r="E4" s="471"/>
       <c r="F4" s="5"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
@@ -34733,11 +34745,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="275"/>
-      <c r="I17" s="453" t="s">
+      <c r="I17" s="443" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="453"/>
-      <c r="K17" s="453"/>
+      <c r="J17" s="443"/>
+      <c r="K17" s="443"/>
       <c r="L17" s="303">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -34760,11 +34772,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="275"/>
-      <c r="I18" s="454" t="s">
+      <c r="I18" s="453" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="454"/>
-      <c r="K18" s="454"/>
+      <c r="J18" s="453"/>
+      <c r="K18" s="453"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -34776,21 +34788,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="443" t="s">
+      <c r="A19" s="463" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="444"/>
-      <c r="C19" s="444"/>
-      <c r="D19" s="444"/>
-      <c r="E19" s="445"/>
+      <c r="B19" s="464"/>
+      <c r="C19" s="464"/>
+      <c r="D19" s="464"/>
+      <c r="E19" s="465"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="461" t="s">
+      <c r="I19" s="448" t="s">
         <v>159</v>
       </c>
-      <c r="J19" s="461"/>
-      <c r="K19" s="461"/>
+      <c r="J19" s="448"/>
+      <c r="K19" s="448"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -34818,11 +34830,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="455" t="s">
+      <c r="I20" s="445" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="455"/>
-      <c r="K20" s="455"/>
+      <c r="J20" s="445"/>
+      <c r="K20" s="445"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -34849,11 +34861,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="456" t="s">
+      <c r="I21" s="454" t="s">
         <v>158</v>
       </c>
-      <c r="J21" s="457"/>
-      <c r="K21" s="458"/>
+      <c r="J21" s="455"/>
+      <c r="K21" s="456"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -34878,11 +34890,11 @@
       <c r="E22" s="242">
         <v>366037</v>
       </c>
-      <c r="I22" s="461" t="s">
+      <c r="I22" s="448" t="s">
         <v>161</v>
       </c>
-      <c r="J22" s="461"/>
-      <c r="K22" s="461"/>
+      <c r="J22" s="448"/>
+      <c r="K22" s="448"/>
       <c r="L22" s="332">
         <v>20000</v>
       </c>
@@ -34907,11 +34919,11 @@
       <c r="E23" s="242">
         <v>445304</v>
       </c>
-      <c r="I23" s="462" t="s">
+      <c r="I23" s="440" t="s">
         <v>182</v>
       </c>
-      <c r="J23" s="463"/>
-      <c r="K23" s="464"/>
+      <c r="J23" s="441"/>
+      <c r="K23" s="442"/>
       <c r="L23" s="332">
         <v>40000</v>
       </c>
@@ -34936,11 +34948,11 @@
       <c r="E24" s="296">
         <v>433882</v>
       </c>
-      <c r="I24" s="461" t="s">
+      <c r="I24" s="448" t="s">
         <v>216</v>
       </c>
-      <c r="J24" s="461"/>
-      <c r="K24" s="461"/>
+      <c r="J24" s="448"/>
+      <c r="K24" s="448"/>
       <c r="L24" s="317">
         <v>30000</v>
       </c>
@@ -34965,11 +34977,11 @@
       <c r="E25" s="242">
         <v>95565</v>
       </c>
-      <c r="I25" s="461" t="s">
+      <c r="I25" s="448" t="s">
         <v>268</v>
       </c>
-      <c r="J25" s="461"/>
-      <c r="K25" s="461"/>
+      <c r="J25" s="448"/>
+      <c r="K25" s="448"/>
       <c r="L25" s="317">
         <v>20000</v>
       </c>
@@ -34994,11 +35006,11 @@
       <c r="E26" s="345">
         <v>61308</v>
       </c>
-      <c r="I26" s="453" t="s">
+      <c r="I26" s="443" t="s">
         <v>162</v>
       </c>
-      <c r="J26" s="453"/>
-      <c r="K26" s="453"/>
+      <c r="J26" s="443"/>
+      <c r="K26" s="443"/>
       <c r="L26" s="303">
         <f>L17-L18-L19-L20-L21-L22-L23-L24-L25</f>
         <v>78150</v>
@@ -35044,13 +35056,13 @@
       <c r="E28" s="242">
         <v>245000</v>
       </c>
-      <c r="I28" s="465" t="s">
+      <c r="I28" s="449" t="s">
         <v>224</v>
       </c>
-      <c r="J28" s="466"/>
-      <c r="K28" s="466"/>
-      <c r="L28" s="466"/>
-      <c r="M28" s="467"/>
+      <c r="J28" s="450"/>
+      <c r="K28" s="450"/>
+      <c r="L28" s="450"/>
+      <c r="M28" s="451"/>
     </row>
     <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="243" t="s">
@@ -35066,11 +35078,11 @@
       <c r="E29" s="242">
         <v>69500</v>
       </c>
-      <c r="I29" s="459" t="s">
+      <c r="I29" s="446" t="s">
         <v>126</v>
       </c>
-      <c r="J29" s="459"/>
-      <c r="K29" s="460"/>
+      <c r="J29" s="446"/>
+      <c r="K29" s="447"/>
       <c r="L29" s="351">
         <v>213170</v>
       </c>
@@ -35120,11 +35132,11 @@
       <c r="E31" s="242">
         <v>29100</v>
       </c>
-      <c r="I31" s="471" t="s">
+      <c r="I31" s="444" t="s">
         <v>153</v>
       </c>
-      <c r="J31" s="455"/>
-      <c r="K31" s="455"/>
+      <c r="J31" s="445"/>
+      <c r="K31" s="445"/>
       <c r="L31" s="349">
         <v>79500</v>
       </c>
@@ -35151,11 +35163,11 @@
       <c r="E32" s="398">
         <v>496960</v>
       </c>
-      <c r="I32" s="471" t="s">
+      <c r="I32" s="444" t="s">
         <v>153</v>
       </c>
-      <c r="J32" s="455"/>
-      <c r="K32" s="455"/>
+      <c r="J32" s="445"/>
+      <c r="K32" s="445"/>
       <c r="L32" s="349">
         <v>47500</v>
       </c>
@@ -35169,11 +35181,11 @@
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="2:18">
-      <c r="I33" s="468" t="s">
+      <c r="I33" s="437" t="s">
         <v>153</v>
       </c>
-      <c r="J33" s="469"/>
-      <c r="K33" s="470"/>
+      <c r="J33" s="438"/>
+      <c r="K33" s="439"/>
       <c r="L33" s="349">
         <v>50000</v>
       </c>
@@ -35187,9 +35199,9 @@
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="I34" s="462"/>
-      <c r="J34" s="463"/>
-      <c r="K34" s="464"/>
+      <c r="I34" s="440"/>
+      <c r="J34" s="441"/>
+      <c r="K34" s="442"/>
       <c r="L34" s="349"/>
       <c r="M34" s="349"/>
       <c r="N34" s="7"/>
@@ -35199,11 +35211,11 @@
       <c r="R34" s="7"/>
     </row>
     <row r="35" spans="2:18" ht="15.75">
-      <c r="I35" s="453" t="s">
+      <c r="I35" s="443" t="s">
         <v>97</v>
       </c>
-      <c r="J35" s="453"/>
-      <c r="K35" s="453"/>
+      <c r="J35" s="443"/>
+      <c r="K35" s="443"/>
       <c r="L35" s="348">
         <f>L29-L31-L32-L33-L34</f>
         <v>36170</v>
@@ -37873,11 +37885,16 @@
     <sortCondition ref="A20"/>
   </sortState>
   <mergeCells count="23">
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="I19:K19"/>
@@ -37886,16 +37903,11 @@
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I31:K31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
@@ -37908,8 +37920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -38655,13 +38667,13 @@
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="217"/>
-      <c r="F29" s="357" t="s">
+      <c r="F29" s="483" t="s">
         <v>243</v>
       </c>
-      <c r="G29" s="358">
+      <c r="G29" s="484">
         <v>23800</v>
       </c>
-      <c r="H29" s="357" t="s">
+      <c r="H29" s="483" t="s">
         <v>242</v>
       </c>
     </row>
